--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
@@ -634,7 +634,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -680,7 +680,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesMedical_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -792,7 +792,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesMedical_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesMedical_CS</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -901,19 +901,19 @@
     <t>歯科診療行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
   </si>
   <si>
     <t>dental</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesDental_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesDental_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesDental_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesDental_CS</t>
   </si>
   <si>
     <t>nurse</t>
@@ -922,10 +922,10 @@
     <t>看護行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesNurse_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesNurse_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesNurse_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesNurse_CS</t>
   </si>
   <si>
     <t>ichi</t>
@@ -934,10 +934,10 @@
     <t>ICHI (International Classification of Health Interventions) ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesICHI_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -1156,7 +1156,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1264,7 +1264,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1314,7 +1314,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureBodySite_VS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1337,7 +1337,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1379,7 +1379,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1417,7 +1417,7 @@
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1482,7 +1482,7 @@
     <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1543,7 +1543,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceKind_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceKind_VS</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1886,7 +1886,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -260,10 +260,6 @@
   <si>
     <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.
 患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2119,13 +2115,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>77</v>
@@ -2136,7 +2132,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2147,28 +2143,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2218,13 +2214,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2247,7 +2243,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2258,25 +2254,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2327,19 +2323,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2356,7 +2352,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2367,28 +2363,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2438,19 +2434,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2467,7 +2463,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2478,7 +2474,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2490,16 +2486,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2525,43 +2521,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2578,18 +2574,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2601,16 +2597,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2660,25 +2656,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2689,11 +2685,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2712,16 +2708,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2771,7 +2767,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2789,7 +2785,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2800,11 +2796,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2823,16 +2819,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2882,7 +2878,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2894,13 +2890,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2911,11 +2907,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2928,25 +2924,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2995,7 +2991,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3007,13 +3003,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3024,7 +3020,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3044,22 +3040,22 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -3108,7 +3104,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3120,24 +3116,24 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3157,16 +3153,16 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3217,7 +3213,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3229,13 +3225,13 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3246,7 +3242,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3266,19 +3262,19 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3328,7 +3324,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3340,13 +3336,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3357,11 +3353,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3377,19 +3373,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3439,7 +3435,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3451,13 +3447,13 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3468,11 +3464,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3488,19 +3484,19 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3550,7 +3546,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3562,13 +3558,13 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3579,7 +3575,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3587,31 +3583,31 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3637,52 +3633,52 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3690,39 +3686,39 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3748,47 +3744,47 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3799,7 +3795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3810,25 +3806,25 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3855,50 +3851,50 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3906,42 +3902,42 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3966,58 +3962,58 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4028,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4040,13 +4036,13 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4097,25 +4093,25 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4126,11 +4122,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4149,16 +4145,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4196,19 +4192,19 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
+      <c r="AE21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4220,13 +4216,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4237,7 +4233,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4257,22 +4253,22 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4309,17 +4305,17 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4331,27 +4327,27 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
@@ -4361,31 +4357,31 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4410,11 +4406,11 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4432,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4444,24 +4440,24 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4472,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4484,13 +4480,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4541,25 +4537,25 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4570,11 +4566,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4593,16 +4589,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4640,19 +4636,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4664,13 +4660,13 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4681,7 +4677,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4689,112 +4685,112 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="R26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4805,28 +4801,28 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4876,36 +4872,36 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4916,29 +4912,29 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4987,36 +4983,36 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5027,29 +5023,29 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5098,36 +5094,36 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5138,31 +5134,31 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5211,39 +5207,39 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>77</v>
@@ -5253,31 +5249,31 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5302,11 +5298,11 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5324,7 +5320,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5336,24 +5332,24 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5364,7 +5360,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5376,13 +5372,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5433,25 +5429,25 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5462,11 +5458,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5485,16 +5481,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5532,19 +5528,19 @@
         <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB33" t="s" s="2">
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
+      <c r="AE33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5556,13 +5552,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5573,7 +5569,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5581,41 +5577,41 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>77</v>
@@ -5657,36 +5653,36 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5697,28 +5693,28 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5768,36 +5764,36 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5808,29 +5804,29 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5879,36 +5875,36 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5919,29 +5915,29 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5990,36 +5986,36 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6030,31 +6026,31 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6103,39 +6099,39 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6145,31 +6141,31 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6194,11 +6190,11 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6216,7 +6212,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6228,24 +6224,24 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6256,7 +6252,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6268,13 +6264,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6325,25 +6321,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6354,11 +6350,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6377,16 +6373,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6424,19 +6420,19 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB41" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB41" t="s" s="2">
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
+      <c r="AE41" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6448,13 +6444,13 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6465,7 +6461,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6473,41 +6469,41 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>77</v>
@@ -6549,36 +6545,36 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6589,28 +6585,28 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6660,36 +6656,36 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6700,29 +6696,29 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6771,36 +6767,36 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6811,29 +6807,29 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6882,36 +6878,36 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6922,31 +6918,31 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -6995,39 +6991,39 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>77</v>
@@ -7037,31 +7033,31 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7086,11 +7082,11 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7108,7 +7104,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7120,24 +7116,24 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7148,7 +7144,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7160,13 +7156,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7217,25 +7213,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7246,11 +7242,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7269,16 +7265,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L49" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7316,19 +7312,19 @@
         <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB49" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB49" t="s" s="2">
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD49" t="s" s="2">
+      <c r="AE49" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7340,13 +7336,13 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7357,7 +7353,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7365,41 +7361,41 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>77</v>
@@ -7441,36 +7437,36 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7481,28 +7477,28 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7552,36 +7548,36 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7592,29 +7588,29 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7663,36 +7659,36 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7703,29 +7699,29 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7774,36 +7770,36 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7814,31 +7810,31 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7887,39 +7883,39 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -7929,31 +7925,31 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -7978,11 +7974,11 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8000,7 +7996,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8012,24 +8008,24 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8040,7 +8036,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8052,13 +8048,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8109,25 +8105,25 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8138,11 +8134,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8161,16 +8157,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8208,19 +8204,19 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB57" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB57" t="s" s="2">
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
+      <c r="AE57" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8232,13 +8228,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8249,7 +8245,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8257,41 +8253,41 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>77</v>
@@ -8333,36 +8329,36 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8373,28 +8369,28 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8444,36 +8440,36 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8484,29 +8480,29 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8555,36 +8551,36 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8595,29 +8591,29 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8666,36 +8662,36 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8706,31 +8702,31 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J62" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8779,36 +8775,36 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8819,31 +8815,31 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -8892,68 +8888,68 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F64" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J64" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9003,36 +8999,36 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9043,28 +9039,28 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J65" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9114,36 +9110,36 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9154,28 +9150,28 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J66" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9225,36 +9221,36 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9265,28 +9261,28 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J67" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9336,28 +9332,28 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9365,7 +9361,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9376,28 +9372,28 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9447,28 +9443,28 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9476,7 +9472,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9496,16 +9492,16 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9556,7 +9552,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9568,13 +9564,13 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9585,7 +9581,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9596,7 +9592,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9608,13 +9604,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9665,25 +9661,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9694,11 +9690,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9717,16 +9713,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L71" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9776,7 +9772,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -9788,13 +9784,13 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9805,11 +9801,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9822,25 +9818,25 @@
         <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -9889,7 +9885,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -9901,13 +9897,13 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -9918,7 +9914,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9929,31 +9925,31 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -9978,58 +9974,58 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10037,34 +10033,34 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J74" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10113,36 +10109,36 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10153,7 +10149,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10165,19 +10161,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10226,25 +10222,25 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10255,7 +10251,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10266,31 +10262,31 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J76" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10339,28 +10335,28 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10368,7 +10364,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10388,19 +10384,19 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10426,11 +10422,11 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10448,7 +10444,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10460,16 +10456,16 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10477,7 +10473,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10497,19 +10493,19 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10559,7 +10555,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10571,16 +10567,16 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10588,7 +10584,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10608,19 +10604,19 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10646,11 +10642,11 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -10668,7 +10664,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10680,24 +10676,24 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10708,28 +10704,28 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10755,47 +10751,47 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -10806,7 +10802,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10829,16 +10825,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10888,7 +10884,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -10900,13 +10896,13 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -10917,7 +10913,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10940,16 +10936,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10975,11 +10971,11 @@
         <v>77</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
@@ -10997,7 +10993,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11009,13 +11005,13 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11026,7 +11022,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11049,19 +11045,19 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11110,7 +11106,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11122,13 +11118,13 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11139,7 +11135,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11162,16 +11158,16 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11197,11 +11193,11 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -11219,7 +11215,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11231,13 +11227,13 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11248,7 +11244,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11271,16 +11267,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11330,7 +11326,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11342,24 +11338,24 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11382,13 +11378,13 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11439,7 +11435,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11451,13 +11447,13 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11468,7 +11464,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11479,7 +11475,7 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11491,13 +11487,13 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11548,25 +11544,25 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11577,11 +11573,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11600,16 +11596,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K88" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L88" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11659,7 +11655,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -11671,13 +11667,13 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11688,11 +11684,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11705,25 +11701,25 @@
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M89" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -11772,7 +11768,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -11784,13 +11780,13 @@
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11801,7 +11797,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11812,7 +11808,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
@@ -11824,13 +11820,13 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11857,47 +11853,47 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -11908,7 +11904,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11916,10 +11912,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -11931,13 +11927,13 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11988,25 +11984,25 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12017,7 +12013,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12040,19 +12036,19 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -12101,7 +12097,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12113,13 +12109,13 @@
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12130,7 +12126,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12153,16 +12149,16 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12188,11 +12184,11 @@
         <v>77</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>77</v>
@@ -12210,7 +12206,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12222,13 +12218,13 @@
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
